--- a/data/case1/15/P2_3.xlsx
+++ b/data/case1/15/P2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.35904787341820565</v>
+        <v>0.41936842089428694</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999991027388546</v>
+        <v>-0.0099999990545747153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999990872016156</v>
+        <v>-0.0089999990379201478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999772580594</v>
+        <v>-0.011999999761052038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999990967787298</v>
+        <v>-0.0059999990508083911</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999990739250109</v>
+        <v>-0.0059999990240591217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0081238549246922531</v>
+        <v>-0.019999998856523149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998931383267</v>
+        <v>-0.019999998850575906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999990605588138</v>
+        <v>-0.0059999990110295442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.037135612902169157</v>
+        <v>-0.0059999990078267729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999990702230264</v>
+        <v>-0.0044999990255725208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.012965367163987995</v>
+        <v>-0.0059999990079284693</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990567431993</v>
+        <v>-0.0059999990083392518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.034800224587443473</v>
+        <v>-0.011999998938307499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990549801652</v>
+        <v>-0.0059999990111290202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999990527206393</v>
+        <v>-0.0059999990149406379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999990496812927</v>
+        <v>0.022899123336109994</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.008999999020254279</v>
+        <v>0.0068734048155345562</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999991108671296</v>
+        <v>-0.060037646325334482</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.047454807145614453</v>
+        <v>-0.0089999990334277413</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999990910905048</v>
+        <v>-0.063427064677365141</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999990905891281</v>
+        <v>-0.0089999990265030583</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.008999999080637977</v>
+        <v>-0.0089999990292222165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998751975909</v>
+        <v>-0.041999998626818247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998746298672</v>
+        <v>-0.04199999861921544</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999990722587881</v>
+        <v>-0.005999999023881486</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999990680572601</v>
+        <v>-0.0059999990202306286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.005999999050573912</v>
+        <v>0.019159802822729333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998981128357</v>
+        <v>-0.011999998922354038</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998898404758</v>
+        <v>-0.019999998821216725</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998938986181</v>
+        <v>-0.014999998870619535</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998880014026</v>
+        <v>-0.020999998798681752</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999990247465718</v>
+        <v>-0.0059999989752439475</v>
       </c>
     </row>
   </sheetData>
